--- a/src/test/resources/MyTestData.xlsx
+++ b/src/test/resources/MyTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f14336dd4898a29/Desktop/655_Batch/Selenium_Basics_Demo/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104815D91F7F545BDE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED93EC71-70C8-484D-B6E4-5088A5F9118A}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104815D91F7F545BDE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAC71E8-D708-4BAA-A3B8-39EA4B9DBEFD}"/>
   <bookViews>
-    <workbookView xWindow="10824" yWindow="336" windowWidth="11136" windowHeight="8832" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>UserName</t>
   </si>
@@ -111,6 +112,30 @@
   </si>
   <si>
     <t>sdgdsg</t>
+  </si>
+  <si>
+    <t>Vivekabc</t>
+  </si>
+  <si>
+    <t>SDFewrtwerwfs</t>
+  </si>
+  <si>
+    <t>Rajithatest</t>
+  </si>
+  <si>
+    <t>dsgdsgtw3sdds</t>
+  </si>
+  <si>
+    <t>Shwetha3re</t>
+  </si>
+  <si>
+    <t>sdgswg</t>
+  </si>
+  <si>
+    <t>Swpna</t>
+  </si>
+  <si>
+    <t>dfgfdgf</t>
   </si>
 </sst>
 </file>
@@ -562,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2385DC3-CA9D-4BAC-A84B-BE3D8D68BC02}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,10 +611,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -598,6 +623,38 @@
       </c>
       <c r="B3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -610,10 +667,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7318186-4D43-4587-A348-3DB8527106C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2ED583-43CF-46B1-BACD-1645253C3F21}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
